--- a/sanky_data.xlsx
+++ b/sanky_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayangzhang/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jiayangzhang/Library/CloudStorage/GoogleDrive-jiayang.zhang@icloud.com/My Drive/Imperial/nlp-physicseducation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFE968D8-1656-6F4F-8BA7-259339863D14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95A08173-605B-B344-84E6-B631B7629BAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18460" yWindow="500" windowWidth="19940" windowHeight="21100" activeTab="3" xr2:uid="{3CCC1F97-36AA-144F-8378-5D083C6C3F29}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{3CCC1F97-36AA-144F-8378-5D083C6C3F29}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="210">
   <si>
     <t>ArgumentLevel</t>
   </si>
@@ -74,9 +74,6 @@
     <t>expert</t>
   </si>
   <si>
-    <t>GS_BSS023_Redacted</t>
-  </si>
-  <si>
     <t>GS_FTZ138_Redacted</t>
   </si>
   <si>
@@ -107,15 +104,9 @@
     <t>GS_FHG790_Redacted</t>
   </si>
   <si>
-    <t>GS_YXT141_Redacted</t>
-  </si>
-  <si>
     <t>GS_LZH215_Redacted</t>
   </si>
   <si>
-    <t>GS_SZB587_Redacted</t>
-  </si>
-  <si>
     <t>GS_QPL350_Redacted</t>
   </si>
   <si>
@@ -134,9 +125,6 @@
     <t>GS_PAO564_Redacted</t>
   </si>
   <si>
-    <t>GS_JWW382_Redacted</t>
-  </si>
-  <si>
     <t>GS_TAP080_Redacted</t>
   </si>
   <si>
@@ -164,9 +152,6 @@
     <t>GS_PHU922_Redacted</t>
   </si>
   <si>
-    <t>GS_YUK005_Redacted</t>
-  </si>
-  <si>
     <t>GS_BQD756_Redacted</t>
   </si>
   <si>
@@ -194,24 +179,15 @@
     <t>GS_DAR896_Redacted</t>
   </si>
   <si>
-    <t>GS_XMC918_Redacted</t>
-  </si>
-  <si>
     <t>GS_BKZ271_Redacted</t>
   </si>
   <si>
-    <t>GS_HSB934_Redacted</t>
-  </si>
-  <si>
     <t>GS_BSS487_Redacted</t>
   </si>
   <si>
     <t>GS_HBQ145_Redacted</t>
   </si>
   <si>
-    <t>GS_YCF820_Redacted</t>
-  </si>
-  <si>
     <t>GS_NQR167_Redacted</t>
   </si>
   <si>
@@ -236,15 +212,9 @@
     <t>GS_DAG780_Redacted</t>
   </si>
   <si>
-    <t>GS_BIN300_Redacted</t>
-  </si>
-  <si>
     <t>GS_NHZ839_Redacted</t>
   </si>
   <si>
-    <t>GS_TCQ490_Redacted</t>
-  </si>
-  <si>
     <t>GS_PUK317_Redacted</t>
   </si>
   <si>
@@ -275,9 +245,6 @@
     <t>GS_JWI426_Redacted</t>
   </si>
   <si>
-    <t>GS_ZZF399_Redacted</t>
-  </si>
-  <si>
     <t>GS_IHJ555_Redacted</t>
   </si>
   <si>
@@ -332,9 +299,6 @@
     <t>GS_JUA192_Redacted</t>
   </si>
   <si>
-    <t>GS_SCO219_Redacted</t>
-  </si>
-  <si>
     <t>GS_KSN764_Redacted</t>
   </si>
   <si>
@@ -675,13 +639,43 @@
   </si>
   <si>
     <t>Y2-Expert 9</t>
+  </si>
+  <si>
+    <t>Extended</t>
+  </si>
+  <si>
+    <t>BAL</t>
+  </si>
+  <si>
+    <t>EXP</t>
+  </si>
+  <si>
+    <t>Deep</t>
+  </si>
+  <si>
+    <t>Superficial</t>
+  </si>
+  <si>
+    <t>NONE</t>
+  </si>
+  <si>
+    <t>Prediction</t>
+  </si>
+  <si>
+    <t>THE</t>
+  </si>
+  <si>
+    <t>Expert</t>
+  </si>
+  <si>
+    <t>2ndINT_SRW902_Redacted</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -702,13 +696,39 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFEEFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -723,9 +743,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1040,10 +1064,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF2B06C6-DFB7-3A44-9265-70E3A701538B}">
-  <dimension ref="A1:G96"/>
+  <dimension ref="A1:G84"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
+      <selection activeCell="C97" sqref="A92:C97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1055,7 +1079,7 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1064,7 +1088,7 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="F1" t="s">
         <v>0</v>
@@ -1075,447 +1099,447 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
-        <v>132</v>
-      </c>
-      <c r="F2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" t="s">
-        <v>4</v>
+      <c r="E2" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>120</v>
-      </c>
-      <c r="F3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
+        <v>4</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>4</v>
       </c>
-      <c r="E4" t="s">
-        <v>164</v>
-      </c>
-      <c r="F4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
+      <c r="E4" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>169</v>
-      </c>
-      <c r="F5" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" t="s">
-        <v>149</v>
-      </c>
-      <c r="F6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" t="s">
         <v>6</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>84</v>
+        <v>37</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7" t="s">
-        <v>138</v>
-      </c>
-      <c r="F7" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" t="s">
-        <v>14</v>
+        <v>4</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" t="s">
-        <v>113</v>
-      </c>
-      <c r="F8" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" t="s">
         <v>6</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C9" t="s">
         <v>6</v>
       </c>
-      <c r="E9" t="s">
-        <v>182</v>
-      </c>
-      <c r="F9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" t="s">
-        <v>19</v>
+      <c r="E9" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E10" t="s">
-        <v>160</v>
-      </c>
-      <c r="F10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G10" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>91</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E11" t="s">
-        <v>110</v>
-      </c>
-      <c r="F11" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" t="s">
-        <v>4</v>
+        <v>4</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
-      <c r="E12" t="s">
-        <v>177</v>
-      </c>
-      <c r="F12" t="s">
-        <v>3</v>
-      </c>
-      <c r="G12" t="s">
-        <v>19</v>
+      <c r="E12" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>103</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
         <v>13</v>
       </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13" t="s">
-        <v>145</v>
-      </c>
-      <c r="F13" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" t="s">
-        <v>4</v>
+      <c r="E13" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
         <v>4</v>
       </c>
-      <c r="E14" t="s">
-        <v>179</v>
-      </c>
-      <c r="F14" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" t="s">
-        <v>4</v>
+      <c r="E14" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="B15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" t="s">
-        <v>121</v>
-      </c>
-      <c r="F15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" t="s">
-        <v>185</v>
-      </c>
-      <c r="F16" t="s">
-        <v>3</v>
-      </c>
-      <c r="G16" t="s">
-        <v>4</v>
+        <v>13</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B17" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C17" t="s">
         <v>6</v>
       </c>
-      <c r="E17" t="s">
-        <v>180</v>
-      </c>
-      <c r="F17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" t="s">
-        <v>4</v>
+      <c r="E17" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" t="s">
-        <v>170</v>
-      </c>
-      <c r="F18" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" t="s">
-        <v>14</v>
+        <v>6</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>63</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C19" t="s">
-        <v>6</v>
-      </c>
-      <c r="E19" t="s">
-        <v>157</v>
-      </c>
-      <c r="F19" t="s">
-        <v>33</v>
-      </c>
-      <c r="G19" t="s">
-        <v>4</v>
+        <v>4</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>69</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C20" t="s">
         <v>6</v>
       </c>
-      <c r="E20" t="s">
-        <v>155</v>
-      </c>
-      <c r="F20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" t="s">
-        <v>4</v>
+      <c r="E20" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" t="s">
         <v>13</v>
       </c>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-      <c r="E21" t="s">
-        <v>178</v>
-      </c>
-      <c r="F21" t="s">
-        <v>13</v>
-      </c>
-      <c r="G21" t="s">
-        <v>6</v>
+      <c r="E21" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>80</v>
+        <v>42</v>
       </c>
       <c r="B22" t="s">
         <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" t="s">
-        <v>128</v>
-      </c>
-      <c r="F22" t="s">
-        <v>13</v>
-      </c>
-      <c r="G22" t="s">
-        <v>4</v>
+        <v>4</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C23" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" t="s">
-        <v>148</v>
-      </c>
-      <c r="F23" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
       <c r="B24" t="s">
         <v>3</v>
@@ -1523,139 +1547,139 @@
       <c r="C24" t="s">
         <v>4</v>
       </c>
-      <c r="E24" t="s">
-        <v>146</v>
-      </c>
-      <c r="F24" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" t="s">
-        <v>19</v>
+      <c r="E24" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B25" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
       </c>
-      <c r="E25" t="s">
-        <v>133</v>
-      </c>
-      <c r="F25" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" t="s">
-        <v>6</v>
+      <c r="E25" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>83</v>
+        <v>44</v>
       </c>
       <c r="B26" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C26" t="s">
-        <v>4</v>
-      </c>
-      <c r="E26" t="s">
-        <v>123</v>
-      </c>
-      <c r="F26" t="s">
-        <v>8</v>
-      </c>
-      <c r="G26" t="s">
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B27" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" t="s">
         <v>13</v>
       </c>
-      <c r="C27" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27" t="s">
-        <v>141</v>
-      </c>
-      <c r="F27" t="s">
-        <v>13</v>
-      </c>
-      <c r="G27" t="s">
-        <v>6</v>
+      <c r="E27" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="B28" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
         <v>6</v>
       </c>
-      <c r="E28" t="s">
-        <v>153</v>
-      </c>
-      <c r="F28" t="s">
-        <v>13</v>
-      </c>
-      <c r="G28" t="s">
-        <v>4</v>
+      <c r="E28" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>88</v>
       </c>
       <c r="B29" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>14</v>
-      </c>
-      <c r="E29" t="s">
-        <v>116</v>
-      </c>
-      <c r="F29" t="s">
-        <v>3</v>
-      </c>
-      <c r="G29" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>81</v>
+        <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C30" t="s">
         <v>6</v>
       </c>
-      <c r="E30" t="s">
-        <v>188</v>
-      </c>
-      <c r="F30" t="s">
-        <v>13</v>
-      </c>
-      <c r="G30" t="s">
-        <v>4</v>
+      <c r="E30" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>100</v>
+        <v>52</v>
       </c>
       <c r="B31" t="s">
         <v>3</v>
@@ -1663,19 +1687,19 @@
       <c r="C31" t="s">
         <v>4</v>
       </c>
-      <c r="E31" t="s">
-        <v>108</v>
-      </c>
-      <c r="F31" t="s">
-        <v>8</v>
-      </c>
-      <c r="G31" t="s">
-        <v>4</v>
+      <c r="E31" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="B32" t="s">
         <v>3</v>
@@ -1683,119 +1707,119 @@
       <c r="C32" t="s">
         <v>6</v>
       </c>
-      <c r="E32" t="s">
-        <v>111</v>
-      </c>
-      <c r="F32" t="s">
-        <v>8</v>
-      </c>
-      <c r="G32" t="s">
-        <v>19</v>
+      <c r="E32" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="B33" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
       </c>
-      <c r="E33" t="s">
-        <v>136</v>
-      </c>
-      <c r="F33" t="s">
-        <v>3</v>
-      </c>
-      <c r="G33" t="s">
-        <v>6</v>
+      <c r="E33" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="B34" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C34" t="s">
-        <v>6</v>
-      </c>
-      <c r="E34" t="s">
-        <v>186</v>
-      </c>
-      <c r="F34" t="s">
-        <v>10</v>
-      </c>
-      <c r="G34" t="s">
-        <v>4</v>
+        <v>4</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="B35" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C35" t="s">
-        <v>4</v>
-      </c>
-      <c r="E35" t="s">
-        <v>171</v>
-      </c>
-      <c r="F35" t="s">
-        <v>33</v>
-      </c>
-      <c r="G35" t="s">
         <v>6</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="B36" t="s">
         <v>10</v>
       </c>
       <c r="C36" t="s">
-        <v>4</v>
-      </c>
-      <c r="E36" t="s">
-        <v>158</v>
-      </c>
-      <c r="F36" t="s">
-        <v>8</v>
-      </c>
-      <c r="G36" t="s">
         <v>6</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="B37" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
       </c>
-      <c r="E37" t="s">
-        <v>156</v>
-      </c>
-      <c r="F37" t="s">
-        <v>33</v>
-      </c>
-      <c r="G37" t="s">
-        <v>19</v>
+      <c r="E37" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="B38" t="s">
         <v>3</v>
@@ -1803,559 +1827,559 @@
       <c r="C38" t="s">
         <v>6</v>
       </c>
-      <c r="E38" t="s">
-        <v>125</v>
-      </c>
-      <c r="F38" t="s">
-        <v>13</v>
-      </c>
-      <c r="G38" t="s">
-        <v>4</v>
+      <c r="E38" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="B39" t="s">
         <v>10</v>
       </c>
       <c r="C39" t="s">
-        <v>6</v>
-      </c>
-      <c r="E39" t="s">
-        <v>161</v>
-      </c>
-      <c r="F39" t="s">
-        <v>10</v>
-      </c>
-      <c r="G39" t="s">
-        <v>6</v>
+        <v>4</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>28</v>
+        <v>93</v>
       </c>
       <c r="B40" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C40" t="s">
         <v>4</v>
       </c>
-      <c r="E40" t="s">
-        <v>127</v>
-      </c>
-      <c r="F40" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" t="s">
-        <v>6</v>
+      <c r="E40" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="B41" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C41" t="s">
-        <v>6</v>
-      </c>
-      <c r="E41" t="s">
-        <v>124</v>
-      </c>
-      <c r="F41" t="s">
-        <v>10</v>
-      </c>
-      <c r="G41" t="s">
-        <v>4</v>
+        <v>13</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B42" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="C42" t="s">
-        <v>4</v>
-      </c>
-      <c r="E42" t="s">
-        <v>122</v>
-      </c>
-      <c r="F42" t="s">
-        <v>10</v>
-      </c>
-      <c r="G42" t="s">
-        <v>4</v>
+        <v>13</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B43" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C43" t="s">
         <v>6</v>
       </c>
       <c r="E43" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="F43" t="s">
-        <v>10</v>
+        <v>208</v>
       </c>
       <c r="G43" t="s">
-        <v>14</v>
+        <v>202</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="B44" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
         <v>4</v>
       </c>
       <c r="E44" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="F44" t="s">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="G44" t="s">
-        <v>6</v>
+        <v>207</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="B45" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C45" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="E45" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="F45" t="s">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="G45" t="s">
-        <v>4</v>
+        <v>201</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="B46" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="C46" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E46" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="F46" t="s">
-        <v>13</v>
+        <v>204</v>
       </c>
       <c r="G46" t="s">
-        <v>4</v>
+        <v>201</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B47" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
         <v>6</v>
       </c>
       <c r="E47" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="F47" t="s">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="G47" t="s">
-        <v>6</v>
+        <v>207</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="B48" t="s">
         <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E48" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="F48" t="s">
-        <v>13</v>
+        <v>204</v>
       </c>
       <c r="G48" t="s">
-        <v>4</v>
+        <v>201</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="B49" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
         <v>6</v>
       </c>
       <c r="E49" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="F49" t="s">
-        <v>33</v>
+        <v>206</v>
       </c>
       <c r="G49" t="s">
-        <v>6</v>
+        <v>207</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B50" t="s">
         <v>3</v>
       </c>
       <c r="C50" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E50" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="F50" t="s">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="G50" t="s">
-        <v>14</v>
+        <v>202</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>23</v>
+        <v>71</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C51" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E51" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="F51" t="s">
-        <v>13</v>
+        <v>204</v>
       </c>
       <c r="G51" t="s">
-        <v>6</v>
+        <v>207</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>104</v>
+        <v>7</v>
       </c>
       <c r="B52" t="s">
         <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E52" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="F52" t="s">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="G52" t="s">
-        <v>14</v>
+        <v>202</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C53" t="s">
         <v>6</v>
       </c>
       <c r="E53" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="F53" t="s">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="G53" t="s">
-        <v>19</v>
+        <v>205</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>45</v>
+        <v>78</v>
       </c>
       <c r="B54" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C54" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E54" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="F54" t="s">
-        <v>33</v>
+        <v>206</v>
       </c>
       <c r="G54" t="s">
-        <v>6</v>
+        <v>207</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>82</v>
+        <v>49</v>
       </c>
       <c r="B55" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C55" t="s">
         <v>4</v>
       </c>
       <c r="E55" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="F55" t="s">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="G55" t="s">
-        <v>14</v>
+        <v>202</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C56" t="s">
         <v>4</v>
       </c>
       <c r="E56" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="F56" t="s">
-        <v>8</v>
+        <v>203</v>
       </c>
       <c r="G56" t="s">
-        <v>14</v>
+        <v>202</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>66</v>
+        <v>84</v>
       </c>
       <c r="B57" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C57" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E57" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="F57" t="s">
-        <v>13</v>
+        <v>204</v>
       </c>
       <c r="G57" t="s">
-        <v>6</v>
+        <v>207</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>89</v>
+        <v>27</v>
       </c>
       <c r="B58" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C58" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E58" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="F58" t="s">
-        <v>13</v>
+        <v>204</v>
       </c>
       <c r="G58" t="s">
-        <v>19</v>
+        <v>205</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="B59" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E59" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="F59" t="s">
-        <v>8</v>
+        <v>203</v>
       </c>
       <c r="G59" t="s">
-        <v>6</v>
+        <v>207</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="B60" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C60" t="s">
         <v>4</v>
       </c>
       <c r="E60" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="F60" t="s">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="G60" t="s">
-        <v>6</v>
+        <v>207</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>95</v>
+        <v>58</v>
       </c>
       <c r="B61" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C61" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E61" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="F61" t="s">
-        <v>8</v>
+        <v>203</v>
       </c>
       <c r="G61" t="s">
-        <v>6</v>
+        <v>207</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="B62" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C62" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E62" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="F62" t="s">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="G62" t="s">
-        <v>6</v>
+        <v>207</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B63" t="s">
         <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E63" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="F63" t="s">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="G63" t="s">
-        <v>4</v>
+        <v>201</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="B64" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C64" t="s">
         <v>4</v>
       </c>
       <c r="E64" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="F64" t="s">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="G64" t="s">
-        <v>4</v>
+        <v>201</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="B65" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C65" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E65" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="F65" t="s">
-        <v>8</v>
+        <v>203</v>
       </c>
       <c r="G65" t="s">
-        <v>6</v>
+        <v>207</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="B66" t="s">
         <v>3</v>
@@ -2364,18 +2388,18 @@
         <v>4</v>
       </c>
       <c r="E66" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="F66" t="s">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="G66" t="s">
-        <v>14</v>
+        <v>202</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B67" t="s">
         <v>8</v>
@@ -2384,485 +2408,353 @@
         <v>4</v>
       </c>
       <c r="E67" t="s">
-        <v>184</v>
+        <v>209</v>
       </c>
       <c r="F67" t="s">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="G67" t="s">
-        <v>4</v>
+        <v>201</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>25</v>
+        <v>75</v>
       </c>
       <c r="B68" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C68" t="s">
         <v>4</v>
       </c>
       <c r="E68" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="F68" t="s">
-        <v>13</v>
+        <v>204</v>
       </c>
       <c r="G68" t="s">
-        <v>19</v>
+        <v>205</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="B69" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C69" t="s">
         <v>4</v>
       </c>
       <c r="E69" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="F69" t="s">
-        <v>8</v>
+        <v>203</v>
       </c>
       <c r="G69" t="s">
-        <v>14</v>
+        <v>202</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="B70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70" t="s">
         <v>13</v>
       </c>
-      <c r="C70" t="s">
-        <v>4</v>
-      </c>
       <c r="E70" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="F70" t="s">
-        <v>13</v>
-      </c>
-      <c r="G70" t="s">
-        <v>6</v>
+        <v>204</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>62</v>
+        <v>15</v>
       </c>
       <c r="B71" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C71" t="s">
         <v>4</v>
       </c>
       <c r="E71" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="F71" t="s">
-        <v>13</v>
-      </c>
-      <c r="G71" t="s">
-        <v>6</v>
+        <v>204</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>43</v>
+        <v>76</v>
       </c>
       <c r="B72" t="s">
         <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E72" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
       <c r="F72" t="s">
-        <v>8</v>
+        <v>203</v>
       </c>
       <c r="G72" t="s">
-        <v>14</v>
+        <v>202</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B73" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
         <v>4</v>
       </c>
       <c r="E73" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="F73" t="s">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="G73" t="s">
-        <v>14</v>
+        <v>202</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C74" t="s">
         <v>4</v>
       </c>
       <c r="E74" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="F74" t="s">
-        <v>13</v>
+        <v>204</v>
       </c>
       <c r="G74" t="s">
-        <v>14</v>
+        <v>202</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="B75" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="C75" t="s">
         <v>4</v>
       </c>
       <c r="E75" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="F75" t="s">
-        <v>13</v>
-      </c>
-      <c r="G75" t="s">
-        <v>6</v>
+        <v>204</v>
+      </c>
+      <c r="G75" s="5" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>67</v>
+        <v>17</v>
       </c>
       <c r="B76" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C76" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="E76" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="F76" t="s">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="G76" t="s">
-        <v>4</v>
+        <v>201</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>88</v>
+        <v>62</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C77" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="E77" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="F77" t="s">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="G77" t="s">
-        <v>4</v>
+        <v>201</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B78" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C78" t="s">
         <v>4</v>
       </c>
       <c r="E78" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="F78" t="s">
-        <v>8</v>
+        <v>203</v>
       </c>
       <c r="G78" t="s">
-        <v>19</v>
+        <v>205</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C79" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E79" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="F79" t="s">
-        <v>8</v>
-      </c>
-      <c r="G79" t="s">
-        <v>6</v>
+        <v>203</v>
+      </c>
+      <c r="G79" s="5" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>92</v>
+        <v>61</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C80" t="s">
         <v>4</v>
       </c>
       <c r="E80" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="F80" t="s">
-        <v>8</v>
+        <v>203</v>
       </c>
       <c r="G80" t="s">
-        <v>14</v>
+        <v>202</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C81" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E81" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="F81" t="s">
-        <v>3</v>
+        <v>200</v>
       </c>
       <c r="G81" t="s">
-        <v>4</v>
+        <v>201</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>2</v>
+        <v>87</v>
       </c>
       <c r="B82" t="s">
         <v>3</v>
       </c>
       <c r="C82" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="E82" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="F82" t="s">
-        <v>3</v>
-      </c>
-      <c r="G82" t="s">
-        <v>6</v>
+        <v>200</v>
+      </c>
+      <c r="G82" s="5" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
       <c r="B83" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C83" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="E83" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="F83" t="s">
-        <v>13</v>
-      </c>
-      <c r="G83" t="s">
-        <v>6</v>
+        <v>204</v>
+      </c>
+      <c r="G83" s="5" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>72</v>
+        <v>90</v>
       </c>
       <c r="B84" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C84" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E84" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="F84" t="s">
-        <v>13</v>
+        <v>204</v>
       </c>
       <c r="G84" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>34</v>
-      </c>
-      <c r="B85" t="s">
-        <v>13</v>
-      </c>
-      <c r="C85" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>85</v>
-      </c>
-      <c r="B86" t="s">
-        <v>13</v>
-      </c>
-      <c r="C86" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>71</v>
-      </c>
-      <c r="B87" t="s">
-        <v>13</v>
-      </c>
-      <c r="C87" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>51</v>
-      </c>
-      <c r="B88" t="s">
-        <v>8</v>
-      </c>
-      <c r="C88" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>91</v>
-      </c>
-      <c r="B89" t="s">
-        <v>3</v>
-      </c>
-      <c r="C89" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>99</v>
-      </c>
-      <c r="B90" t="s">
-        <v>3</v>
-      </c>
-      <c r="C90" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>56</v>
-      </c>
-      <c r="B91" t="s">
-        <v>3</v>
-      </c>
-      <c r="C91" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>74</v>
-      </c>
-      <c r="B92" t="s">
-        <v>13</v>
-      </c>
-      <c r="C92" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>41</v>
-      </c>
-      <c r="B93" t="s">
-        <v>8</v>
-      </c>
-      <c r="C93" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>22</v>
-      </c>
-      <c r="B94" t="s">
-        <v>13</v>
-      </c>
-      <c r="C94" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>102</v>
-      </c>
-      <c r="B95" t="s">
-        <v>13</v>
-      </c>
-      <c r="C95" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>78</v>
-      </c>
-      <c r="B96" t="s">
-        <v>13</v>
-      </c>
-      <c r="C96" t="s">
-        <v>4</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>
@@ -2885,12 +2777,12 @@
   <sheetData>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -2916,24 +2808,24 @@
   <sheetData>
     <row r="1" spans="1:7" ht="70" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="70" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="B2" s="1">
         <v>9</v>
@@ -2954,7 +2846,7 @@
     </row>
     <row r="3" spans="1:7" ht="70" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B3" s="1">
         <v>3</v>
@@ -2975,7 +2867,7 @@
     </row>
     <row r="4" spans="1:7" ht="70" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="B4" s="1">
         <v>16</v>
@@ -2996,7 +2888,7 @@
     </row>
     <row r="5" spans="1:7" ht="70" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
@@ -3017,7 +2909,7 @@
     </row>
     <row r="6" spans="1:7" ht="70" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="B6" s="1">
         <f>SUM(B2:B5)</f>
@@ -3055,7 +2947,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE66BF5A-4473-B44F-912F-DC62AB4298BB}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -3064,25 +2956,25 @@
     <row r="1" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="B2" s="1">
         <v>12</v>
@@ -3106,7 +2998,7 @@
     </row>
     <row r="3" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="B3" s="1">
         <v>9</v>
@@ -3130,7 +3022,7 @@
     </row>
     <row r="4" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="B4" s="1">
         <v>4</v>
@@ -3154,7 +3046,7 @@
     </row>
     <row r="5" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="B5" s="1">
         <v>0</v>
@@ -3178,7 +3070,7 @@
     </row>
     <row r="6" spans="1:8" ht="26" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
